--- a/src/main/webapp/schedules/Influenza.xlsx
+++ b/src/main/webapp/schedules/Influenza.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCH\TCHWorkspaces\iris006-ws\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E47DFC-B064-4420-950E-02394196D64C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23175" yWindow="165" windowWidth="14745" windowHeight="13110" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="358" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="XML" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp" sheetId="3" r:id="rId1"/>
+    <sheet name="Schedules" sheetId="1" r:id="rId2"/>
+    <sheet name="XML" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area">Schedules!$A$1:$L$150</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$102</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">Schedules!$A$1:$L$102</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="250">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -54,9 +64,6 @@
     <t>Vaccine</t>
   </si>
   <si>
-    <t>TCH Id</t>
-  </si>
-  <si>
     <t>CVX</t>
   </si>
   <si>
@@ -207,9 +214,6 @@
     <t>0 days</t>
   </si>
   <si>
-    <t>180, 203</t>
-  </si>
-  <si>
     <t>Against</t>
   </si>
   <si>
@@ -258,9 +262,6 @@
     <t>H1N1</t>
   </si>
   <si>
-    <t>186, 187, 188, 189</t>
-  </si>
-  <si>
     <t>season</t>
   </si>
   <si>
@@ -303,13 +304,487 @@
     <t>Influenza IIV4</t>
   </si>
   <si>
-    <t>2050, 180, 181, 1430, 1440, 179, 200, 201, 185, 205, 204, 203, 202, 217, 218, 219, 220, 221, 222, 223, 229</t>
-  </si>
-  <si>
     <t>influenza IIV3 MDCK</t>
   </si>
   <si>
-    <t>180, 187, 203, 204, 220</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV 13</t>
+  </si>
+  <si>
+    <t>typhus, historical</t>
+  </si>
+  <si>
+    <t>zoster</t>
+  </si>
+  <si>
+    <t>yellow fever</t>
+  </si>
+  <si>
+    <t>VZIG</t>
+  </si>
+  <si>
+    <t>VEE, unspecified formulation</t>
+  </si>
+  <si>
+    <t>VEE, live</t>
+  </si>
+  <si>
+    <t>VEE, inactivated</t>
+  </si>
+  <si>
+    <t>vaccinia immune globulin</t>
+  </si>
+  <si>
+    <t>typhoid, unspecified formulation</t>
+  </si>
+  <si>
+    <t>typhoid, ViCPs</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral, AKD (U.S. military)</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral</t>
+  </si>
+  <si>
+    <t>typhoid, oral</t>
+  </si>
+  <si>
+    <t>tularemia vaccine</t>
+  </si>
+  <si>
+    <t>TST, unspecified formulation</t>
+  </si>
+  <si>
+    <t>TST-PPD tine test</t>
+  </si>
+  <si>
+    <t>TST-PPD intradermal</t>
+  </si>
+  <si>
+    <t>TST-OT tine test</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>tick-borne encephalitis</t>
+  </si>
+  <si>
+    <t>tetanus toxoid, adsorbed</t>
+  </si>
+  <si>
+    <t>Staphylococcus bacterio lysate</t>
+  </si>
+  <si>
+    <t>vaccinia (smallpox)</t>
+  </si>
+  <si>
+    <t>RSV-MAb</t>
+  </si>
+  <si>
+    <t>RSV-IGIV</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>Rift Valley fever</t>
+  </si>
+  <si>
+    <t>rheumatic fever</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>pertussis</t>
+  </si>
+  <si>
+    <t>parainfluenza-3</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>malaria</t>
+  </si>
+  <si>
+    <t>leprosy</t>
+  </si>
+  <si>
+    <t>leishmaniasis</t>
+  </si>
+  <si>
+    <t>Japanese Encephalitis IM</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis SC</t>
+  </si>
+  <si>
+    <t>IG, unspecified formulation</t>
+  </si>
+  <si>
+    <t>IGIV</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Hib (PRP-OMP)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-T)</t>
+  </si>
+  <si>
+    <t>Hib (HbOC)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-D)</t>
+  </si>
+  <si>
+    <t>herpes simplex 2</t>
+  </si>
+  <si>
+    <t>Hep E</t>
+  </si>
+  <si>
+    <t>Hep B, dialysis</t>
+  </si>
+  <si>
+    <t>Hep B, adult</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent/high risk infant</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent or pediatric</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>HBIG</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 3 dose</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 2 dose</t>
+  </si>
+  <si>
+    <t>Hep A, adult</t>
+  </si>
+  <si>
+    <t>hantavirus</t>
+  </si>
+  <si>
+    <t>DTP-Hib-Hep B</t>
+  </si>
+  <si>
+    <t>diphtheria antitoxin</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>CMVIG</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>botulinum antitoxin</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>adenovirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>adenovirus, type 7</t>
+  </si>
+  <si>
+    <t>adenovirus, type 4</t>
+  </si>
+  <si>
+    <t>HPV, unspecified formulation</t>
+  </si>
+  <si>
+    <t>HPV, bivalent</t>
+  </si>
+  <si>
+    <t>HPV, quadrivalent</t>
+  </si>
+  <si>
+    <t>meningococcal B, OMV</t>
+  </si>
+  <si>
+    <t>meningococcal B, recombinant</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>Meningococcal C/Y-HIB PRP</t>
+  </si>
+  <si>
+    <t>rotavirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>rabies, unspecified formulation</t>
+  </si>
+  <si>
+    <t>rabies, intradermal injection</t>
+  </si>
+  <si>
+    <t>rabies, intramuscular injection</t>
+  </si>
+  <si>
+    <t>Lyme disease</t>
+  </si>
+  <si>
+    <t>rotavirus, tetravalent</t>
+  </si>
+  <si>
+    <t>rotavirus, pentavalent</t>
+  </si>
+  <si>
+    <t>rotavirus, monovalent</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza nasal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza, seasonal, intradermal, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Meningococcal MCV4O</t>
+  </si>
+  <si>
+    <t>meningococcal C conjugate</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09, preservative-free</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, nasal</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, all formulations</t>
+  </si>
+  <si>
+    <t>Influenza, high dose seasonal</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4P</t>
+  </si>
+  <si>
+    <t>meningococcal MPSV4</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal</t>
+  </si>
+  <si>
+    <t>Influenza, injectable,quadrivalent, preservative free, pediatric</t>
+  </si>
+  <si>
+    <t>influenza, recombinant, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, unspecified formulation</t>
+  </si>
+  <si>
+    <t>varicella</t>
+  </si>
+  <si>
+    <t>rubella/mumps</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>mumps</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>M/R</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>MMRV</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pneumococcal Conjugate, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal polysaccharide PPV23</t>
+  </si>
+  <si>
+    <t>pneumococcal conjugate PCV 7</t>
+  </si>
+  <si>
+    <t>polio, unspecified formulation</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>Hep A-Hep B</t>
+  </si>
+  <si>
+    <t>Hep A, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A, pediatric, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP,IPV,Hib,HepB</t>
+  </si>
+  <si>
+    <t>DTaP-IPV-HIB-HEP B, historical</t>
+  </si>
+  <si>
+    <t>Hep B, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hib-Hep B</t>
+  </si>
+  <si>
+    <t>Hib, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Td (adult) preservative free</t>
+  </si>
+  <si>
+    <t>Tdap</t>
+  </si>
+  <si>
+    <t>Td(adult) unspecified formulation</t>
+  </si>
+  <si>
+    <t>Td (adult)</t>
+  </si>
+  <si>
+    <t>Td (adult), adsorbed</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>DTP-Hib</t>
+  </si>
+  <si>
+    <t>DTaP-IPV</t>
+  </si>
+  <si>
+    <t>DTaP-Hib-IPV</t>
+  </si>
+  <si>
+    <t>DTaP-Hep B-IPV</t>
+  </si>
+  <si>
+    <t>DTaP-Hib</t>
+  </si>
+  <si>
+    <t>DT (pediatric)</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>DTaP, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP, 5 pertussis antigens</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>CVX Label</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>111, 15, 88, 140, 141, 135, 158, 161, 149, 144, 166, 168, 171, 151, 185, 186, 155, 153</t>
+  </si>
+  <si>
+    <t>111, 149</t>
+  </si>
+  <si>
+    <t>111, 125, 161, 149, 151</t>
+  </si>
+  <si>
+    <t>128, 125, 126, 127</t>
+  </si>
+  <si>
+    <t>CVX Code</t>
   </si>
 </sst>
 </file>
@@ -362,7 +837,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +882,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
       </patternFill>
@@ -421,6 +890,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -585,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,16 +1106,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -653,24 +1130,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -702,13 +1189,26 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,11 +1707,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033CC113-B98B-46EC-80D8-9A89289CDB5D}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>155</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>156</v>
+      </c>
+      <c r="B31">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>179</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>179</v>
+      </c>
+      <c r="B43">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>179</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>184</v>
+      </c>
+      <c r="B51">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>186</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>187</v>
+      </c>
+      <c r="B54">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>197</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>201</v>
+      </c>
+      <c r="B60">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>202</v>
+      </c>
+      <c r="B61">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>202</v>
+      </c>
+      <c r="B62">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>203</v>
+      </c>
+      <c r="B63">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>204</v>
+      </c>
+      <c r="B65">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>204</v>
+      </c>
+      <c r="B66">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>208</v>
+      </c>
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>209</v>
+      </c>
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>210</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>210</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>210</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>211</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>212</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>213</v>
+      </c>
+      <c r="B76">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>214</v>
+      </c>
+      <c r="B77">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>215</v>
+      </c>
+      <c r="B78">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>216</v>
+      </c>
+      <c r="B79">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>390</v>
+      </c>
+      <c r="B80">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>391</v>
+      </c>
+      <c r="B81">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>391</v>
+      </c>
+      <c r="B82">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1010</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1020</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1030</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1050</v>
+      </c>
+      <c r="B87">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1060</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1070</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1080</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1150</v>
+      </c>
+      <c r="B92">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1160</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1170</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1180</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1190</v>
+      </c>
+      <c r="B96">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1230</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1250</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1260</v>
+      </c>
+      <c r="B100">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1270</v>
+      </c>
+      <c r="B101">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1300</v>
+      </c>
+      <c r="B102">
+        <v>59</v>
+      </c>
+      <c r="C102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1310</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1320</v>
+      </c>
+      <c r="B104">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1330</v>
+      </c>
+      <c r="B105">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1340</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1350</v>
+      </c>
+      <c r="B107">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1400</v>
+      </c>
+      <c r="B108">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1410</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1420</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1490</v>
+      </c>
+      <c r="B111">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1491</v>
+      </c>
+      <c r="B112">
+        <v>134</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1510</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1520</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1570</v>
+      </c>
+      <c r="B115">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1590</v>
+      </c>
+      <c r="B116">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1630</v>
+      </c>
+      <c r="B117">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1640</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1650</v>
+      </c>
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1680</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1720</v>
+      </c>
+      <c r="B121">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1730</v>
+      </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1740</v>
+      </c>
+      <c r="B123">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1760</v>
+      </c>
+      <c r="B124">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1770</v>
+      </c>
+      <c r="B125">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1800</v>
+      </c>
+      <c r="B126">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1810</v>
+      </c>
+      <c r="B127">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1830</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1840</v>
+      </c>
+      <c r="B129">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1850</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1860</v>
+      </c>
+      <c r="B131">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1870</v>
+      </c>
+      <c r="B132">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1880</v>
+      </c>
+      <c r="B133">
+        <v>97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1890</v>
+      </c>
+      <c r="B134">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1900</v>
+      </c>
+      <c r="B135">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1910</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1920</v>
+      </c>
+      <c r="B137">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1930</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1940</v>
+      </c>
+      <c r="B139">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1950</v>
+      </c>
+      <c r="B140">
+        <v>91</v>
+      </c>
+      <c r="C140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1960</v>
+      </c>
+      <c r="B141">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1980</v>
+      </c>
+      <c r="B142">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1990</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2000</v>
+      </c>
+      <c r="B144">
+        <v>92</v>
+      </c>
+      <c r="C144" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2010</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2110</v>
+      </c>
+      <c r="B147">
+        <v>121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>3141</v>
+      </c>
+      <c r="B148">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3143</v>
+      </c>
+      <c r="B149">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9999</v>
+      </c>
+      <c r="B150">
+        <v>999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,7 +3396,7 @@
     <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
@@ -1264,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -1281,19 +3451,19 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -1301,410 +3471,352 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="36">
+        <v>64</v>
+      </c>
+      <c r="C9" s="37">
         <v>-503</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="51">
+        <v>111</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="51">
+        <v>15</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="I15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
-        <v>2050</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="H17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="7">
-        <v>180</v>
-      </c>
-      <c r="F14" s="7">
-        <v>111</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="7">
-        <v>181</v>
-      </c>
-      <c r="F15" s="7">
-        <v>15</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18">
-        <v>1430</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="51">
+        <v>88</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
-        <v>1440</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="7">
-        <v>179</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="51">
+        <v>141</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="51">
+        <v>135</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="55">
+        <v>128</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="51">
+        <v>125</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="55">
+        <v>126</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="55">
+        <v>127</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="51">
+        <v>158</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="51">
+        <v>161</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="7">
-        <v>200</v>
-      </c>
-      <c r="F19" s="7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="7">
-        <v>201</v>
-      </c>
-      <c r="F20" s="7">
-        <v>141</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="7">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="51">
+        <v>149</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="51">
+        <v>144</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="51">
+        <v>166</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="51">
+        <v>168</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="51">
+        <v>171</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="51">
+        <v>151</v>
+      </c>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="51">
         <v>185</v>
       </c>
-      <c r="F21" s="7">
-        <v>135</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="7">
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="51">
         <v>186</v>
       </c>
-      <c r="F22" s="7">
-        <v>128</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="7">
-        <v>187</v>
-      </c>
-      <c r="F23" s="7">
-        <v>125</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="7">
-        <v>188</v>
-      </c>
-      <c r="F24" s="7">
-        <v>126</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="7">
-        <v>189</v>
-      </c>
-      <c r="F25" s="7">
-        <v>127</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="7">
-        <v>205</v>
-      </c>
-      <c r="F26" s="7">
-        <v>158</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="7">
-        <v>204</v>
-      </c>
-      <c r="F27" s="7">
-        <v>161</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="7">
-        <v>203</v>
-      </c>
-      <c r="F28" s="7">
-        <v>149</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="7">
-        <v>202</v>
-      </c>
-      <c r="F29" s="7">
-        <v>144</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="7">
-        <v>217</v>
-      </c>
-      <c r="F30" s="7">
-        <v>166</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="7">
-        <v>218</v>
-      </c>
-      <c r="F31" s="7">
-        <v>168</v>
-      </c>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="7">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7">
-        <v>171</v>
-      </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="7">
-        <v>220</v>
-      </c>
-      <c r="F33" s="7">
-        <v>151</v>
-      </c>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="51">
+        <v>155</v>
+      </c>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="7">
-        <v>221</v>
-      </c>
-      <c r="F34" s="7">
-        <v>185</v>
-      </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="7">
-        <v>222</v>
-      </c>
-      <c r="F35" s="7">
-        <v>186</v>
-      </c>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="7">
-        <v>223</v>
-      </c>
-      <c r="F36" s="7">
-        <v>155</v>
-      </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="7">
-        <v>229</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="51">
         <v>153</v>
       </c>
       <c r="I37" s="9"/>
@@ -1837,192 +3949,192 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="E80" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="23" t="s">
+      <c r="C81" s="19">
+        <v>1</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="23">
-        <v>1</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="37" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="20"/>
+      <c r="C83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="24"/>
-      <c r="C83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="25"/>
+      <c r="K84" s="21"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="25"/>
+      <c r="K85" s="21"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="21"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="25"/>
+      <c r="K86" s="21"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="H87" s="25"/>
+      <c r="H87" s="21"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="25"/>
+      <c r="K87" s="21"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="H88" s="25"/>
+      <c r="H88" s="21"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="25"/>
+      <c r="K88" s="21"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="27"/>
+      <c r="B89" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="23"/>
       <c r="D89" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E89" s="7"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="21"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="25"/>
+      <c r="K89" s="21"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="27"/>
+      <c r="B90" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="23"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="H90" s="25"/>
+      <c r="H90" s="21"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="25"/>
+      <c r="K90" s="21"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="H91" s="25"/>
+      <c r="B91" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="H91" s="21"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="25"/>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F92" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="25"/>
+      <c r="K92" s="21"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -2030,20 +4142,20 @@
         <v>5</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
+      <c r="B94" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
       <c r="J94" s="9"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
@@ -2051,16 +4163,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="J95" s="9"/>
     </row>
@@ -2069,144 +4181,144 @@
         <v>5</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="25"/>
+      <c r="K96" s="21"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="8"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="25"/>
+      <c r="K97" s="21"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="35"/>
+      <c r="F98" s="31"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="25"/>
+      <c r="K98" s="21"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="25"/>
+      <c r="K99" s="21"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C100" s="7">
         <v>1</v>
       </c>
       <c r="J100" s="9"/>
-      <c r="K100" s="25"/>
+      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
       </c>
-      <c r="H101" s="25"/>
+      <c r="H101" s="21"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="25"/>
+      <c r="K101" s="21"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H102" s="25"/>
+      <c r="H102" s="21"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="25"/>
+      <c r="K102" s="21"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="D103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F103" s="22"/>
+      <c r="E103" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" s="23">
+      <c r="B104" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="19">
         <v>1</v>
       </c>
-      <c r="D104" s="23"/>
+      <c r="D104" s="19"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="20"/>
+      <c r="C106" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="24"/>
-      <c r="C106" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2214,82 +4326,82 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="27"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
+      <c r="B114" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
@@ -2297,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -2305,34 +4417,34 @@
         <v>5</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
+      <c r="B117" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
@@ -2340,10 +4452,10 @@
         <v>5</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="8"/>
@@ -2353,17 +4465,17 @@
         <v>4</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120" s="8"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -2371,7 +4483,7 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="7">
         <v>1</v>
@@ -2379,108 +4491,108 @@
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C127" s="13"/>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
+      <c r="B128" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="49"/>
-      <c r="D129" s="34" t="s">
+      <c r="B129" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="35"/>
+      <c r="D129" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="35"/>
+      <c r="D130" s="30" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="49"/>
-      <c r="D130" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F132" s="22"/>
+      <c r="E132" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="23">
+      <c r="B133" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="20"/>
+      <c r="C135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="24"/>
-      <c r="C135" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2488,82 +4600,82 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" s="36"/>
+      <c r="D141" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="50"/>
-      <c r="D141" s="7" t="s">
+      <c r="E141" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C142" s="27"/>
+      <c r="C142" s="23"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
+      <c r="B143" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F144" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H144" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
@@ -2571,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -2579,34 +4691,34 @@
         <v>5</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
+      <c r="B146" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D147" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
@@ -2614,10 +4726,10 @@
         <v>5</v>
       </c>
       <c r="C148" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="8"/>
@@ -2627,7 +4739,7 @@
         <v>4</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -2635,7 +4747,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C150" s="7">
         <v>2</v>
@@ -2643,7 +4755,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" s="7">
         <v>1</v>
@@ -2652,6 +4764,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B143:D143"/>
     <mergeCell ref="B146:D146"/>
     <mergeCell ref="B91:D91"/>
@@ -2665,16 +4787,6 @@
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
     <mergeCell ref="B141:C141"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,7 +4804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -2702,352 +4814,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="106.42578125" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="25" t="str">
         <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;"&gt;"</f>
         <v>&lt;forecast seriesName="Influenza"&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="25" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Flu" vaccineIds="2050, 180, 181, 1430, 1440, 179, 200, 201, 185, 205, 204, 203, 202, 217, 218, 219, 220, 221, 222, 223, 229"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Flu" vaccineIds="111, 15, 88, 140, 141, 135, 158, 161, 149, 144, 166, 168, 171, 151, 185, 186, 155, 153"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="25" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Nasal" vaccineIds="180, 203"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Nasal" vaccineIds="111, 149"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="25" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Live" vaccineIds="180, 187, 203, 204, 220"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Live" vaccineIds="111, 125, 161, 149, 151"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="str">
+      <c r="B5" s="25" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B8&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C8&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="H1N1" vaccineIds="186, 187, 188, 189"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="H1N1" vaccineIds="128, 125, 126, 127"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="25" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B9&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C9&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Season Start" vaccineIds="-503"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="25" t="str">
         <f>"  &lt;seasonal due="&amp;CHAR(34)&amp;Schedules!I17&amp;CHAR(34)&amp;" overdue="&amp;CHAR(34)&amp;Schedules!I18&amp;CHAR(34)&amp;" end="&amp;CHAR(34)&amp;Schedules!I16&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;seasonal due="1 month" overdue="5 months" end="6 months"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="25" t="str">
         <f>"  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B35&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C35&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D35&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;transition name="Influenza injectable MDCK quadrivalent" age="" vaccineId=""/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="26" t="str">
         <f>Schedules!B81</f>
         <v>P1</v>
       </c>
-      <c r="B9" s="31" t="str">
+      <c r="B9" s="27" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B81&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C81&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D81&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E80&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="BIRTH" label="season"&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="25" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C100&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="str">
+      <c r="B11" s="28" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C84&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D84&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E84&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="6 months" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="str">
+      <c r="B12" s="28" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="28" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="str">
+      <c r="B14" s="28" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="150 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="28" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="150 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="28" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="28" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="str">
+      <c r="B18" s="28" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B93&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D93&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E93&amp;CHAR(34)&amp;" against=" &amp;CHAR(34)&amp;Schedules!F93&amp;CHAR(34)&amp;" contra="&amp;CHAR(34)&amp;Schedules!G93&amp;CHAR(34)&amp;" allowed="&amp;CHAR(34)&amp;Schedules!H93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Live" afterInterval="4 weeks" age="" reason="" against="Nasal" contra="Influenza LAIV" allowed="Influenza IIV"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B96&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F96&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Nasal" schedule="INVALID" age="2 years" reason="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Flu" schedule="P1" age="" reason="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="str">
+      <c r="B21" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="H1N1" schedule="P1" age="" reason="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="str">
+      <c r="B22" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B99&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F99&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Season Start" schedule="S1" age="" reason="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="str">
+      <c r="B23" s="28" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="str">
+      <c r="A24" s="26" t="str">
         <f>Schedules!B104</f>
         <v>S1</v>
       </c>
-      <c r="B24" s="31" t="str">
+      <c r="B24" s="27" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="current season"&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="28" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C121&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="3"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="str">
+      <c r="B26" s="28" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="6 months" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="32" t="str">
+      <c r="B27" s="28" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E108&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="32" t="str">
+      <c r="B28" s="28" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D109&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E109&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="28" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E110&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="150 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="32" t="str">
+      <c r="B30" s="28" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="150 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="32" t="str">
+      <c r="B31" s="28" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="32" t="str">
+      <c r="B32" s="28" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="str">
+      <c r="B33" s="28" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B116&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;" against=" &amp;CHAR(34)&amp;Schedules!F116&amp;CHAR(34)&amp;" contra="&amp;CHAR(34)&amp;Schedules!G116&amp;CHAR(34)&amp;" allowed="&amp;CHAR(34)&amp;Schedules!H116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Live" afterInterval="4 weeks" age="" reason="" against="Nasal" contra="Influenza LAIV" allowed="Influenza IIV"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="32" t="str">
+      <c r="B34" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B119&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F119&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E119&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Nasal" schedule="INVALID" age="2 years" reason="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="str">
+      <c r="B35" s="28" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B120&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C120&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D120&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F120&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E120&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Flu" schedule="DL FLU 2015" age="" reason="" seasonCompleted="Yes"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="str">
+      <c r="B36" s="28" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="str">
+      <c r="A37" s="26" t="str">
         <f>Schedules!B125</f>
         <v>DL FLU 2015</v>
       </c>
-      <c r="B37" s="31" t="str">
+      <c r="B37" s="27" t="str">
         <f>"  &lt;decisionLogic name="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;decisionLogic name="DL FLU 2015"&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="32" t="str">
+      <c r="B38" s="28" t="str">
         <f>"    &lt;constant name="&amp;CHAR(34)&amp;Schedules!B127&amp;CHAR(34)&amp;" value="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;constant name="Valid Vaccine" value="Flu"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="str">
+      <c r="B39" s="28" t="str">
         <f>"    &lt;transition name="&amp;CHAR(34)&amp;Schedules!B129&amp;CHAR(34)&amp;" value="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;transition name="Second Dose Needed" value="S2"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="str">
+      <c r="B40" s="28" t="str">
         <f>"    &lt;transition name="&amp;CHAR(34)&amp;Schedules!B130&amp;CHAR(34)&amp;" value="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;transition name="No More Doses Needed" value="COMPLETE"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="32" t="s">
-        <v>74</v>
+      <c r="B41" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="str">
+      <c r="A42" s="26" t="str">
         <f>Schedules!B133</f>
         <v>S2</v>
       </c>
-      <c r="B42" s="31" t="str">
+      <c r="B42" s="27" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B133&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S2" dose="2" indication="" label="2nd seasonal"&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="29" t="str">
+      <c r="B43" s="25" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="str">
+      <c r="B44" s="28" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="" interval="4 weeks" grace=""/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="32" t="str">
+      <c r="B45" s="28" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="str">
+      <c r="B46" s="28" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="" interval="1 month" grace=""/&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="32" t="str">
+      <c r="B47" s="28" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="" interval="2 months" grace=""/&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="str">
+      <c r="B48" s="28" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="150 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="32" t="str">
+      <c r="B49" s="28" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D141&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="32" t="str">
+      <c r="B50" s="28" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D142&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="32" t="str">
+      <c r="B51" s="28" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B145&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C145&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D145&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E145&amp;CHAR(34)&amp;" against=" &amp;CHAR(34)&amp;Schedules!F145&amp;CHAR(34)&amp;" contra="&amp;CHAR(34)&amp;Schedules!G145&amp;CHAR(34)&amp;" allowed="&amp;CHAR(34)&amp;Schedules!H145&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Live" afterInterval="4 weeks" age="" reason="" against="Nasal" contra="Influenza LAIV" allowed="Influenza IIV"/&gt;</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="str">
+      <c r="B52" s="29" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!H148&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Nasal" schedule="INVALID" age="2 years" reason="" minInterval="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="str">
+      <c r="B53" s="29" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!H149&amp;CHAR(34)&amp;" seasonCompleted="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Flu" schedule="COMPLETE" age="" reason="" minInterval="" seasonCompleted=""/&gt;</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="32" t="str">
+      <c r="B54" s="28" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="29" t="str">
+      <c r="B55" s="25" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>
